--- a/صيدليات دكتور مصطفي طلعت_2026-01-14_12-03.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-14_12-03.xlsx
@@ -110,10 +110,16 @@
     <t>4:0</t>
   </si>
   <si>
+    <t xml:space="preserve">فرش  فوكس عرض</t>
+  </si>
+  <si>
     <t>معجون اسنان بارودونتكس 50مل</t>
   </si>
   <si>
     <t>6:0</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
     <t>Wednesday, 14 January, 2026 12:03 PM</t>
@@ -1070,51 +1076,103 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="19" ht="25.5" customHeight="1">
-      <c r="K19" s="10">
-        <v>1273</v>
-      </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="11">
+    <row r="19" ht="24.75" customHeight="1">
+      <c r="A19" s="6">
+        <v>16</v>
+      </c>
+      <c t="s" r="B19" s="7">
+        <v>34</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c t="s" r="H19" s="8">
         <v>35</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c t="s" r="F20" s="12">
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9">
+        <v>80</v>
+      </c>
+      <c r="M19" s="9"/>
+      <c t="s" r="N19" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" ht="25.5" customHeight="1">
+      <c r="A20" s="6">
+        <v>17</v>
+      </c>
+      <c t="s" r="B20" s="7">
         <v>36</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
-      <c t="s" r="I20" s="14">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c t="s" r="H20" s="8">
+        <v>9</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9">
+        <v>20</v>
+      </c>
+      <c r="M20" s="9"/>
+      <c t="s" r="N20" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="K21" s="10">
+        <v>1333</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="11">
         <v>37</v>
       </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c t="s" r="F22" s="12">
+        <v>38</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
+      <c t="s" r="I22" s="14">
+        <v>39</v>
+      </c>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="62">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1167,10 +1225,16 @@
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:N22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
